--- a/Files/CursosPlatzi.xlsx
+++ b/Files/CursosPlatzi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\CursoRPAPlatzi\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C13CB0-4AC4-4858-8946-A1F7A9609C5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350A053-94B8-491A-99FD-E65A7F03F038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20910" windowHeight="11835" xr2:uid="{C641D340-4481-49F0-8AF2-2A25B514403F}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20910" windowHeight="11835" xr2:uid="{C641D340-4481-49F0-8AF2-2A25B514403F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="2" r:id="rId1"/>

--- a/Files/CursosPlatzi.xlsx
+++ b/Files/CursosPlatzi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\CursoRPAPlatzi\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350A053-94B8-491A-99FD-E65A7F03F038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE765EB-26BA-4896-BF89-C92D242D985E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20910" windowHeight="11835" xr2:uid="{C641D340-4481-49F0-8AF2-2A25B514403F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C641D340-4481-49F0-8AF2-2A25B514403F}"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="199">
   <si>
     <t>Curso de Programación de Videojuegos 2D con Unity</t>
   </si>
@@ -688,24 +688,35 @@
     <t>/clases/1488-movil-unity/17543-seleccion-de-los-caramelos/</t>
   </si>
   <si>
-    <t>NombreCurso</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Estatus del Curso</t>
-  </si>
-  <si>
-    <t>HOLA PAPULARDO</t>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>PaginaWeb</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>wqe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -733,11 +744,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,13 +1064,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9FF538-F134-4F53-A981-9FDD33A7140E}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -1069,7 +1083,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1094,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1085,18 +1105,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1104,8 +1127,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1115,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2162,5 +2185,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>